--- a/Klinikliste.xlsx
+++ b/Klinikliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cebf55f0aaad79c/سطح المكتب/Abschlussprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mel\Documents\Arbeit\Projekt\Gruppe 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AFEB64FA-4691-4129-B459-B6F17BC56251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF442A5-F592-4BB2-9DA9-E9F5BC447C34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEB64FA-4691-4129-B459-B6F17BC56251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1515" yWindow="1515" windowWidth="18000" windowHeight="9360" xr2:uid="{CDF4C74C-E155-4ED1-AEE6-0547478CE71C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDF4C74C-E155-4ED1-AEE6-0547478CE71C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -627,17 +627,17 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -692,7 +692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -725,7 +725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -747,7 +747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -758,7 +758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -769,7 +769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -780,7 +780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -802,7 +802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -813,7 +813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -824,7 +824,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -835,7 +835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -846,7 +846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -879,7 +879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -890,7 +890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -901,7 +901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -912,55 +912,54 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{32E3FB4E-1D55-498E-BEED-37F37E52F72C}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{EE2DF3E2-21CA-4B3A-9F0C-019D15BB80B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>